--- a/research/akadaner/2020.12.13 boiling_plan_sample.xlsx
+++ b/research/akadaner/2020.12.13 boiling_plan_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\research\akadaner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8C27D5-3895-4DAA-9496-E35754BE12FB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7DCB03-7878-47E0-9134-345C372CEB50}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +493,11 @@
     <col min="1" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="50" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="10" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.2" x14ac:dyDescent="0.3">
@@ -555,16 +559,16 @@
         <v>9</v>
       </c>
       <c r="G2" s="2">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="H2" t="str">
-        <f>IF(M2 - M1 = 0, "", M1 - M2)</f>
+        <f ca="1">IF(M2 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M2)</f>
         <v/>
       </c>
       <c r="I2" s="2"/>
       <c r="J2">
-        <f t="shared" ref="J2:J42" si="0">IF(I2 = "-", -D1,G2)</f>
-        <v>850</v>
+        <f ca="1">IF(I2 = "-", -INDIRECT("D" &amp; ROW() - 1),G2)</f>
+        <v>840</v>
       </c>
       <c r="K2">
         <f>IF(I2 = "-", SUM(J$2:J2), 0)</f>
@@ -575,43 +579,41 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M33" si="1">IF(K2 = 0, M1, K2)</f>
+        <f ca="1">IF(K2 = 0, INDIRECT("M" &amp; ROW() - 1), K2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="str">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <f xml:space="preserve"> IF(I3="-", "", 1 +SUM(L$2:L3))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>850</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="2">
+        <v>850</v>
       </c>
       <c r="H3" t="str">
-        <f>IF(M3 - M2 = 0, "", M2 - M3)</f>
-        <v/>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
+        <f t="shared" ref="H3:H66" ca="1" si="0">IF(M3 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M3)</f>
+        <v/>
+      </c>
+      <c r="I3" s="2"/>
       <c r="J3">
-        <f t="shared" si="0"/>
-        <v>-850</v>
+        <f t="shared" ref="J3:J66" ca="1" si="1">IF(I3 = "-", -INDIRECT("D" &amp; ROW() - 1),G3)</f>
+        <v>850</v>
       </c>
       <c r="K3">
         <f>IF(I3 = "-", SUM(J$2:J3), 0)</f>
@@ -619,91 +621,91 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" si="2">IF(I3="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M59" ca="1" si="3">IF(K3 = 0, INDIRECT("M" &amp; ROW() - 1), K3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f xml:space="preserve"> IF(I4="-", "", 1 +SUM(L$2:L4))</f>
+        <v/>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-840</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-850</v>
+      </c>
+      <c r="K4">
+        <f ca="1">IF(I4 = "-", SUM(J$2:J4), 0)</f>
+        <v>840</v>
+      </c>
+      <c r="L4">
+        <f>IF(I4="-",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="M4">
+        <f t="shared" ca="1" si="3"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <f xml:space="preserve"> IF(I4="-", "", 1 +SUM(L$2:L4))</f>
+      <c r="B5" s="2">
+        <f xml:space="preserve"> IF(I5="-", "", 1 +SUM(L$2:L5))</f>
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>850</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2">
-        <v>850</v>
-      </c>
-      <c r="H4" t="str">
-        <f>IF(M4 - M3 = 0, "", M3 - M4)</f>
-        <v/>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>850</v>
-      </c>
-      <c r="K4">
-        <f>IF(I4 = "-", SUM(J$2:J4), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f xml:space="preserve"> IF(I5="-", "", 1 +SUM(L$2:L5))</f>
-        <v/>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G5" s="2">
+        <v>567</v>
       </c>
       <c r="H5" t="str">
-        <f>IF(M5 - M4 = 0, "", M4 - M5)</f>
-        <v/>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>10</v>
-      </c>
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="2"/>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>-850</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>567</v>
       </c>
       <c r="K5">
         <f>IF(I5 = "-", SUM(J$2:J5), 0)</f>
@@ -711,56 +713,58 @@
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="3"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f xml:space="preserve"> IF(I6="-", "", 1 +SUM(L$2:L6))</f>
+        <v/>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <f ca="1">IF(M6 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M6)</f>
+        <v>283</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <f ca="1">IF(I6 = "-", -INDIRECT("D" &amp; ROW() - 1),G6)</f>
+        <v>-850</v>
+      </c>
+      <c r="K6">
+        <f ca="1">IF(I6 = "-", SUM(J$2:J6), 0)</f>
+        <v>557</v>
+      </c>
+      <c r="L6">
+        <f>IF(I6="-",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <f xml:space="preserve"> IF(I6="-", "", 1 +SUM(L$2:L6))</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>850</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2">
-        <v>567</v>
-      </c>
-      <c r="H6" t="str">
-        <f>IF(M6 - M5 = 0, "", M5 - M6)</f>
-        <v/>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>567</v>
-      </c>
-      <c r="K6">
-        <f>IF(I6 = "-", SUM(J$2:J6), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="M6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f ca="1">IF(K6 = 0, INDIRECT("M" &amp; ROW() - 1), K6)</f>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -787,12 +791,12 @@
         <v>283</v>
       </c>
       <c r="H7" t="str">
-        <f>IF(M7 - M6 = 0, "", M6 - M7)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I7" s="2"/>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>283</v>
       </c>
       <c r="K7">
@@ -804,8 +808,8 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -831,28 +835,28 @@
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="str">
-        <f>IF(M8 - M7 = 0, "", M7 - M8)</f>
-        <v/>
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>567</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-850</v>
       </c>
       <c r="K8">
-        <f>IF(I8 = "-", SUM(J$2:J8), 0)</f>
-        <v>0</v>
+        <f ca="1">IF(I8 = "-", SUM(J$2:J8), 0)</f>
+        <v>-10</v>
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -879,12 +883,12 @@
         <v>850</v>
       </c>
       <c r="H9" t="str">
-        <f>IF(M9 - M8 = 0, "", M8 - M9)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I9" s="2"/>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>850</v>
       </c>
       <c r="K9">
@@ -896,8 +900,8 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -924,27 +928,27 @@
         <v>10</v>
       </c>
       <c r="H10" t="str">
-        <f>IF(M10 - M9 = 0, "", M9 - M10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-850</v>
       </c>
       <c r="K10">
-        <f>IF(I10 = "-", SUM(J$2:J10), 0)</f>
-        <v>0</v>
+        <f ca="1">IF(I10 = "-", SUM(J$2:J10), 0)</f>
+        <v>-10</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -971,12 +975,12 @@
         <v>850</v>
       </c>
       <c r="H11" t="str">
-        <f>IF(M11 - M10 = 0, "", M10 - M11)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I11" s="2"/>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>850</v>
       </c>
       <c r="K11">
@@ -988,8 +992,8 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1016,27 +1020,27 @@
         <v>10</v>
       </c>
       <c r="H12" t="str">
-        <f>IF(M12 - M11 = 0, "", M11 - M12)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-850</v>
       </c>
       <c r="K12">
-        <f>IF(I12 = "-", SUM(J$2:J12), 0)</f>
-        <v>0</v>
+        <f ca="1">IF(I12 = "-", SUM(J$2:J12), 0)</f>
+        <v>-10</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1063,12 +1067,12 @@
         <v>850</v>
       </c>
       <c r="H13" t="str">
-        <f>IF(M13 - M12 = 0, "", M12 - M13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I13" s="2"/>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>850</v>
       </c>
       <c r="K13">
@@ -1080,8 +1084,8 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1108,27 +1112,27 @@
         <v>10</v>
       </c>
       <c r="H14" t="str">
-        <f>IF(M14 - M13 = 0, "", M13 - M14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-850</v>
       </c>
       <c r="K14">
-        <f>IF(I14 = "-", SUM(J$2:J14), 0)</f>
-        <v>0</v>
+        <f ca="1">IF(I14 = "-", SUM(J$2:J14), 0)</f>
+        <v>-10</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1155,12 +1159,12 @@
         <v>297</v>
       </c>
       <c r="H15" t="str">
-        <f>IF(M15 - M14 = 0, "", M14 - M15)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I15" s="2"/>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>297</v>
       </c>
       <c r="K15">
@@ -1172,8 +1176,8 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1200,12 +1204,12 @@
         <v>553</v>
       </c>
       <c r="H16" t="str">
-        <f>IF(M16 - M15 = 0, "", M15 - M16)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I16" s="2"/>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>553</v>
       </c>
       <c r="K16">
@@ -1217,8 +1221,8 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1245,27 +1249,27 @@
         <v>10</v>
       </c>
       <c r="H17" t="str">
-        <f>IF(M17 - M16 = 0, "", M16 - M17)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-850</v>
       </c>
       <c r="K17">
-        <f>IF(I17 = "-", SUM(J$2:J17), 0)</f>
-        <v>0</v>
+        <f ca="1">IF(I17 = "-", SUM(J$2:J17), 0)</f>
+        <v>-10</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1292,12 +1296,12 @@
         <v>850</v>
       </c>
       <c r="H18" t="str">
-        <f>IF(M18 - M17 = 0, "", M17 - M18)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I18" s="2"/>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>850</v>
       </c>
       <c r="K18">
@@ -1309,8 +1313,8 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1337,27 +1341,27 @@
         <v>10</v>
       </c>
       <c r="H19" t="str">
-        <f>IF(M19 - M18 = 0, "", M18 - M19)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-850</v>
       </c>
       <c r="K19">
-        <f>IF(I19 = "-", SUM(J$2:J19), 0)</f>
-        <v>0</v>
+        <f ca="1">IF(I19 = "-", SUM(J$2:J19), 0)</f>
+        <v>-10</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1384,12 +1388,12 @@
         <v>240</v>
       </c>
       <c r="H20" t="str">
-        <f>IF(M20 - M19 = 0, "", M19 - M20)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I20" s="2"/>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>240</v>
       </c>
       <c r="K20">
@@ -1401,8 +1405,8 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1429,12 +1433,12 @@
         <v>610</v>
       </c>
       <c r="H21" t="str">
-        <f>IF(M21 - M20 = 0, "", M20 - M21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I21" s="2"/>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>610</v>
       </c>
       <c r="K21">
@@ -1446,8 +1450,8 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1474,27 +1478,27 @@
         <v>10</v>
       </c>
       <c r="H22" t="str">
-        <f>IF(M22 - M21 = 0, "", M21 - M22)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-850</v>
       </c>
       <c r="K22">
-        <f>IF(I22 = "-", SUM(J$2:J22), 0)</f>
-        <v>0</v>
+        <f ca="1">IF(I22 = "-", SUM(J$2:J22), 0)</f>
+        <v>-10</v>
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1521,12 +1525,12 @@
         <v>34</v>
       </c>
       <c r="H23" t="str">
-        <f>IF(M23 - M22 = 0, "", M22 - M23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I23" s="2"/>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>34</v>
       </c>
       <c r="K23">
@@ -1538,8 +1542,8 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1566,12 +1570,12 @@
         <v>966</v>
       </c>
       <c r="H24" t="str">
-        <f>IF(M24 - M23 = 0, "", M23 - M24)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I24" s="2"/>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>966</v>
       </c>
       <c r="K24">
@@ -1583,8 +1587,8 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1611,27 +1615,27 @@
         <v>10</v>
       </c>
       <c r="H25" t="str">
-        <f>IF(M25 - M24 = 0, "", M24 - M25)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-1000</v>
       </c>
       <c r="K25">
-        <f>IF(I25 = "-", SUM(J$2:J25), 0)</f>
-        <v>0</v>
+        <f ca="1">IF(I25 = "-", SUM(J$2:J25), 0)</f>
+        <v>-10</v>
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1658,12 +1662,12 @@
         <v>1000</v>
       </c>
       <c r="H26" t="str">
-        <f>IF(M26 - M25 = 0, "", M25 - M26)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I26" s="2"/>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1000</v>
       </c>
       <c r="K26">
@@ -1675,8 +1679,8 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1703,27 +1707,27 @@
         <v>10</v>
       </c>
       <c r="H27" t="str">
-        <f>IF(M27 - M26 = 0, "", M26 - M27)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-1000</v>
       </c>
       <c r="K27">
-        <f>IF(I27 = "-", SUM(J$2:J27), 0)</f>
-        <v>0</v>
+        <f ca="1">IF(I27 = "-", SUM(J$2:J27), 0)</f>
+        <v>-10</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M27">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1750,12 +1754,12 @@
         <v>198</v>
       </c>
       <c r="H28" t="str">
-        <f>IF(M28 - M27 = 0, "", M27 - M28)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I28" s="2"/>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>198</v>
       </c>
       <c r="K28">
@@ -1767,8 +1771,8 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1795,12 +1799,12 @@
         <v>102</v>
       </c>
       <c r="H29" t="str">
-        <f>IF(M29 - M28 = 0, "", M28 - M29)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I29" s="2"/>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>102</v>
       </c>
       <c r="K29">
@@ -1812,8 +1816,8 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1840,12 +1844,12 @@
         <v>143</v>
       </c>
       <c r="H30" t="str">
-        <f>IF(M30 - M29 = 0, "", M29 - M30)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I30" s="2"/>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>143</v>
       </c>
       <c r="K30">
@@ -1857,8 +1861,8 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1885,12 +1889,12 @@
         <v>337</v>
       </c>
       <c r="H31" t="str">
-        <f>IF(M31 - M30 = 0, "", M30 - M31)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I31" s="2"/>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>337</v>
       </c>
       <c r="K31">
@@ -1902,8 +1906,8 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -1930,12 +1934,12 @@
         <v>61</v>
       </c>
       <c r="H32" t="str">
-        <f>IF(M32 - M31 = 0, "", M31 - M32)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I32" s="2"/>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>61</v>
       </c>
       <c r="K32">
@@ -1947,8 +1951,8 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -1975,12 +1979,12 @@
         <v>159</v>
       </c>
       <c r="H33" t="str">
-        <f>IF(M33 - M32 = 0, "", M32 - M33)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I33" s="2"/>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>159</v>
       </c>
       <c r="K33">
@@ -1992,8 +1996,8 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2020,27 +2024,27 @@
         <v>10</v>
       </c>
       <c r="H34" t="str">
-        <f>IF(M34 - M33 = 0, "", M33 - M34)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-1000</v>
       </c>
       <c r="K34">
-        <f>IF(I34 = "-", SUM(J$2:J34), 0)</f>
-        <v>0</v>
+        <f ca="1">IF(I34 = "-", SUM(J$2:J34), 0)</f>
+        <v>-10</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M34">
-        <f>IF(K34 = 0, M33, K34)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2067,12 +2071,12 @@
         <v>1000</v>
       </c>
       <c r="H35" t="str">
-        <f>IF(M35 - M34 = 0, "", M34 - M35)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I35" s="2"/>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1000</v>
       </c>
       <c r="K35">
@@ -2084,8 +2088,8 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <f>IF(K35 = 0, M34, K35)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2112,27 +2116,27 @@
         <v>10</v>
       </c>
       <c r="H36" t="str">
-        <f>IF(M36 - M35 = 0, "", M35 - M36)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-1000</v>
       </c>
       <c r="K36">
-        <f>IF(I36 = "-", SUM(J$2:J36), 0)</f>
-        <v>0</v>
+        <f ca="1">IF(I36 = "-", SUM(J$2:J36), 0)</f>
+        <v>-10</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M36">
-        <f t="shared" ref="M36:M99" si="3">IF(K36 = 0, M35, K36)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2159,12 +2163,12 @@
         <v>1000</v>
       </c>
       <c r="H37" t="str">
-        <f>IF(M37 - M36 = 0, "", M36 - M37)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I37" s="2"/>
       <c r="J37">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1000</v>
       </c>
       <c r="K37">
@@ -2176,8 +2180,8 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2204,27 +2208,27 @@
         <v>10</v>
       </c>
       <c r="H38" t="str">
-        <f>IF(M38 - M37 = 0, "", M37 - M38)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J38">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-1000</v>
       </c>
       <c r="K38">
-        <f>IF(I38 = "-", SUM(J$2:J38), 0)</f>
-        <v>0</v>
+        <f ca="1">IF(I38 = "-", SUM(J$2:J38), 0)</f>
+        <v>-10</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -2251,12 +2255,12 @@
         <v>850</v>
       </c>
       <c r="H39" t="str">
-        <f>IF(M39 - M38 = 0, "", M38 - M39)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I39" s="2"/>
       <c r="J39">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>850</v>
       </c>
       <c r="K39">
@@ -2268,8 +2272,8 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -2296,27 +2300,27 @@
         <v>10</v>
       </c>
       <c r="H40" t="str">
-        <f>IF(M40 - M39 = 0, "", M39 - M40)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-850</v>
       </c>
       <c r="K40">
-        <f>IF(I40 = "-", SUM(J$2:J40), 0)</f>
-        <v>0</v>
+        <f ca="1">IF(I40 = "-", SUM(J$2:J40), 0)</f>
+        <v>-10</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M40">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -2343,12 +2347,12 @@
         <v>850</v>
       </c>
       <c r="H41" t="str">
-        <f>IF(M41 - M40 = 0, "", M40 - M41)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I41" s="2"/>
       <c r="J41">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>850</v>
       </c>
       <c r="K41">
@@ -2360,8 +2364,8 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2388,27 +2392,27 @@
         <v>10</v>
       </c>
       <c r="H42" t="str">
-        <f>IF(M42 - M41 = 0, "", M41 - M42)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-850</v>
       </c>
       <c r="K42">
-        <f>IF(I42 = "-", SUM(J$2:J42), 0)</f>
-        <v>0</v>
+        <f ca="1">IF(I42 = "-", SUM(J$2:J42), 0)</f>
+        <v>-10</v>
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M42">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -2417,11 +2421,11 @@
         <v>17</v>
       </c>
       <c r="H43" t="str">
-        <f>IF(M43 - M42 = 0, "", M42 - M43)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J43">
-        <f t="shared" ref="J43:J106" si="4">IF(I43 = "-", -D42,G43)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K43">
@@ -2433,8 +2437,8 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -2446,11 +2450,11 @@
         <v>17</v>
       </c>
       <c r="H44" t="str">
-        <f>IF(M44 - M43 = 0, "", M43 - M44)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K44">
@@ -2462,8 +2466,8 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -2475,11 +2479,11 @@
         <v>17</v>
       </c>
       <c r="H45" t="str">
-        <f>IF(M45 - M44 = 0, "", M44 - M45)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K45">
@@ -2491,8 +2495,8 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -2504,11 +2508,11 @@
         <v>17</v>
       </c>
       <c r="H46" t="str">
-        <f>IF(M46 - M45 = 0, "", M45 - M46)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K46">
@@ -2520,8 +2524,8 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -2533,11 +2537,11 @@
         <v>17</v>
       </c>
       <c r="H47" t="str">
-        <f>IF(M47 - M46 = 0, "", M46 - M47)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K47">
@@ -2549,8 +2553,8 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -2562,11 +2566,11 @@
         <v>17</v>
       </c>
       <c r="H48" t="str">
-        <f>IF(M48 - M47 = 0, "", M47 - M48)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K48">
@@ -2578,8 +2582,8 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -2591,11 +2595,11 @@
         <v>17</v>
       </c>
       <c r="H49" t="str">
-        <f>IF(M49 - M48 = 0, "", M48 - M49)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K49">
@@ -2607,8 +2611,8 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -2620,11 +2624,11 @@
         <v>17</v>
       </c>
       <c r="H50" t="str">
-        <f>IF(M50 - M49 = 0, "", M49 - M50)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K50">
@@ -2636,8 +2640,8 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -2649,11 +2653,11 @@
         <v>17</v>
       </c>
       <c r="H51" t="str">
-        <f>IF(M51 - M50 = 0, "", M50 - M51)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K51">
@@ -2665,8 +2669,8 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -2678,11 +2682,11 @@
         <v>17</v>
       </c>
       <c r="H52" t="str">
-        <f>IF(M52 - M51 = 0, "", M51 - M52)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K52">
@@ -2694,8 +2698,8 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -2707,11 +2711,11 @@
         <v>17</v>
       </c>
       <c r="H53" t="str">
-        <f>IF(M53 - M52 = 0, "", M52 - M53)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K53">
@@ -2723,8 +2727,8 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -2736,11 +2740,11 @@
         <v>17</v>
       </c>
       <c r="H54" t="str">
-        <f>IF(M54 - M53 = 0, "", M53 - M54)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J54">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K54">
@@ -2752,8 +2756,8 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -2765,11 +2769,11 @@
         <v>17</v>
       </c>
       <c r="H55" t="str">
-        <f>IF(M55 - M54 = 0, "", M54 - M55)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J55">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K55">
@@ -2781,8 +2785,8 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -2794,11 +2798,11 @@
         <v>17</v>
       </c>
       <c r="H56" t="str">
-        <f>IF(M56 - M55 = 0, "", M55 - M56)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J56">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K56">
@@ -2810,8 +2814,8 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -2823,11 +2827,11 @@
         <v>17</v>
       </c>
       <c r="H57" t="str">
-        <f>IF(M57 - M56 = 0, "", M56 - M57)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J57">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K57">
@@ -2839,8 +2843,8 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -2852,11 +2856,11 @@
         <v>17</v>
       </c>
       <c r="H58" t="str">
-        <f>IF(M58 - M57 = 0, "", M57 - M58)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J58">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K58">
@@ -2868,8 +2872,8 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -2881,11 +2885,11 @@
         <v>17</v>
       </c>
       <c r="H59" t="str">
-        <f>IF(M59 - M58 = 0, "", M58 - M59)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J59">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K59">
@@ -2897,8 +2901,8 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -2910,11 +2914,11 @@
         <v>17</v>
       </c>
       <c r="H60" t="str">
-        <f>IF(M60 - M59 = 0, "", M59 - M60)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J60">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K60">
@@ -2926,8 +2930,8 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="M60:M99" ca="1" si="4">IF(K60 = 0, M59, K60)</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -2939,11 +2943,11 @@
         <v>17</v>
       </c>
       <c r="H61" t="str">
-        <f>IF(M61 - M60 = 0, "", M60 - M61)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J61">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K61">
@@ -2955,8 +2959,8 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -2968,11 +2972,11 @@
         <v>17</v>
       </c>
       <c r="H62" t="str">
-        <f>IF(M62 - M61 = 0, "", M61 - M62)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J62">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K62">
@@ -2984,8 +2988,8 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -2997,11 +3001,11 @@
         <v>17</v>
       </c>
       <c r="H63" t="str">
-        <f>IF(M63 - M62 = 0, "", M62 - M63)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J63">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K63">
@@ -3013,8 +3017,8 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -3026,11 +3030,11 @@
         <v>17</v>
       </c>
       <c r="H64" t="str">
-        <f>IF(M64 - M63 = 0, "", M63 - M64)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J64">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K64">
@@ -3042,8 +3046,8 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -3055,11 +3059,11 @@
         <v>17</v>
       </c>
       <c r="H65" t="str">
-        <f>IF(M65 - M64 = 0, "", M64 - M65)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J65">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K65">
@@ -3071,8 +3075,8 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -3084,11 +3088,11 @@
         <v>17</v>
       </c>
       <c r="H66" t="str">
-        <f>IF(M66 - M65 = 0, "", M65 - M66)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J66">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K66">
@@ -3100,8 +3104,8 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -3113,11 +3117,11 @@
         <v>17</v>
       </c>
       <c r="H67" t="str">
-        <f>IF(M67 - M66 = 0, "", M66 - M67)</f>
+        <f t="shared" ref="H67:H101" ca="1" si="5">IF(M67 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M67)</f>
         <v/>
       </c>
       <c r="J67">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J67:J111" ca="1" si="6">IF(I67 = "-", -INDIRECT("D" &amp; ROW() - 1),G67)</f>
         <v>0</v>
       </c>
       <c r="K67">
@@ -3125,12 +3129,12 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L120" si="5">IF(I67="-",1,0)</f>
+        <f t="shared" ref="L67:L120" si="7">IF(I67="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -3142,11 +3146,11 @@
         <v>17</v>
       </c>
       <c r="H68" t="str">
-        <f>IF(M68 - M67 = 0, "", M67 - M68)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J68">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K68">
@@ -3154,12 +3158,12 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M68">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -3171,11 +3175,11 @@
         <v>17</v>
       </c>
       <c r="H69" t="str">
-        <f>IF(M69 - M68 = 0, "", M68 - M69)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J69">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K69">
@@ -3183,12 +3187,12 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M69">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -3200,11 +3204,11 @@
         <v>17</v>
       </c>
       <c r="H70" t="str">
-        <f>IF(M70 - M69 = 0, "", M69 - M70)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K70">
@@ -3212,12 +3216,12 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -3229,11 +3233,11 @@
         <v>17</v>
       </c>
       <c r="H71" t="str">
-        <f>IF(M71 - M70 = 0, "", M70 - M71)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J71">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K71">
@@ -3241,12 +3245,12 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M71">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -3258,11 +3262,11 @@
         <v>17</v>
       </c>
       <c r="H72" t="str">
-        <f>IF(M72 - M71 = 0, "", M71 - M72)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J72">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K72">
@@ -3270,12 +3274,12 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M72">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -3287,11 +3291,11 @@
         <v>17</v>
       </c>
       <c r="H73" t="str">
-        <f>IF(M73 - M72 = 0, "", M72 - M73)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J73">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K73">
@@ -3299,12 +3303,12 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M73">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -3316,11 +3320,11 @@
         <v>17</v>
       </c>
       <c r="H74" t="str">
-        <f>IF(M74 - M73 = 0, "", M73 - M74)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J74">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K74">
@@ -3328,12 +3332,12 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M74">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -3345,11 +3349,11 @@
         <v>17</v>
       </c>
       <c r="H75" t="str">
-        <f>IF(M75 - M74 = 0, "", M74 - M75)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J75">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K75">
@@ -3357,12 +3361,12 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M75">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -3374,11 +3378,11 @@
         <v>17</v>
       </c>
       <c r="H76" t="str">
-        <f>IF(M76 - M75 = 0, "", M75 - M76)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K76">
@@ -3386,12 +3390,12 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M76">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -3403,11 +3407,11 @@
         <v>17</v>
       </c>
       <c r="H77" t="str">
-        <f>IF(M77 - M76 = 0, "", M76 - M77)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J77">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K77">
@@ -3415,12 +3419,12 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M77">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -3432,11 +3436,11 @@
         <v>17</v>
       </c>
       <c r="H78" t="str">
-        <f>IF(M78 - M77 = 0, "", M77 - M78)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J78">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K78">
@@ -3444,12 +3448,12 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M78">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -3461,11 +3465,11 @@
         <v>17</v>
       </c>
       <c r="H79" t="str">
-        <f>IF(M79 - M78 = 0, "", M78 - M79)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J79">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K79">
@@ -3473,12 +3477,12 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M79">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -3490,11 +3494,11 @@
         <v>17</v>
       </c>
       <c r="H80" t="str">
-        <f>IF(M80 - M79 = 0, "", M79 - M80)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J80">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K80">
@@ -3502,12 +3506,12 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M80">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -3519,11 +3523,11 @@
         <v>17</v>
       </c>
       <c r="H81" t="str">
-        <f>IF(M81 - M80 = 0, "", M80 - M81)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J81">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K81">
@@ -3531,12 +3535,12 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M81">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -3548,11 +3552,11 @@
         <v>17</v>
       </c>
       <c r="H82" t="str">
-        <f>IF(M82 - M81 = 0, "", M81 - M82)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J82">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K82">
@@ -3560,12 +3564,12 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M82">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -3577,11 +3581,11 @@
         <v>17</v>
       </c>
       <c r="H83" t="str">
-        <f>IF(M83 - M82 = 0, "", M82 - M83)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J83">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K83">
@@ -3589,12 +3593,12 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M83">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -3606,11 +3610,11 @@
         <v>17</v>
       </c>
       <c r="H84" t="str">
-        <f>IF(M84 - M83 = 0, "", M83 - M84)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J84">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K84">
@@ -3618,12 +3622,12 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -3635,11 +3639,11 @@
         <v>17</v>
       </c>
       <c r="H85" t="str">
-        <f>IF(M85 - M84 = 0, "", M84 - M85)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K85">
@@ -3647,12 +3651,12 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M85">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -3664,11 +3668,11 @@
         <v>17</v>
       </c>
       <c r="H86" t="str">
-        <f>IF(M86 - M85 = 0, "", M85 - M86)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J86">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K86">
@@ -3676,12 +3680,12 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M86">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -3693,11 +3697,11 @@
         <v>17</v>
       </c>
       <c r="H87" t="str">
-        <f>IF(M87 - M86 = 0, "", M86 - M87)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J87">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K87">
@@ -3705,12 +3709,12 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M87">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -3722,11 +3726,11 @@
         <v>17</v>
       </c>
       <c r="H88" t="str">
-        <f>IF(M88 - M87 = 0, "", M87 - M88)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J88">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K88">
@@ -3734,12 +3738,12 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M88">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -3751,11 +3755,11 @@
         <v>17</v>
       </c>
       <c r="H89" t="str">
-        <f>IF(M89 - M88 = 0, "", M88 - M89)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J89">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K89">
@@ -3763,12 +3767,12 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M89">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -3777,11 +3781,11 @@
         <v>17</v>
       </c>
       <c r="H90" t="str">
-        <f>IF(M90 - M89 = 0, "", M89 - M90)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J90">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K90">
@@ -3789,12 +3793,12 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M90">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
@@ -3803,11 +3807,11 @@
         <v>17</v>
       </c>
       <c r="H91" t="str">
-        <f>IF(M91 - M90 = 0, "", M90 - M91)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J91">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K91">
@@ -3815,12 +3819,12 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M91">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -3829,11 +3833,11 @@
         <v>17</v>
       </c>
       <c r="H92" t="str">
-        <f>IF(M92 - M91 = 0, "", M91 - M92)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J92">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K92">
@@ -3841,12 +3845,12 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M92">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -3855,11 +3859,11 @@
         <v>17</v>
       </c>
       <c r="H93" t="str">
-        <f>IF(M93 - M92 = 0, "", M92 - M93)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J93">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K93">
@@ -3867,12 +3871,12 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M93">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -3881,11 +3885,11 @@
         <v>17</v>
       </c>
       <c r="H94" t="str">
-        <f>IF(M94 - M93 = 0, "", M93 - M94)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J94">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K94">
@@ -3893,12 +3897,12 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M94">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -3907,11 +3911,11 @@
         <v>17</v>
       </c>
       <c r="H95" t="str">
-        <f>IF(M95 - M94 = 0, "", M94 - M95)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J95">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K95">
@@ -3919,12 +3923,12 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M95">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -3933,11 +3937,11 @@
         <v>17</v>
       </c>
       <c r="H96" t="str">
-        <f>IF(M96 - M95 = 0, "", M95 - M96)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J96">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K96">
@@ -3945,12 +3949,12 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M96">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.3">
@@ -3959,11 +3963,11 @@
         <v>17</v>
       </c>
       <c r="H97" t="str">
-        <f>IF(M97 - M96 = 0, "", M96 - M97)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J97">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K97">
@@ -3971,12 +3975,12 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M97">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.3">
@@ -3985,11 +3989,11 @@
         <v>17</v>
       </c>
       <c r="H98" t="str">
-        <f>IF(M98 - M97 = 0, "", M97 - M98)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J98">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K98">
@@ -3997,12 +4001,12 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M98">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.3">
@@ -4011,11 +4015,11 @@
         <v>17</v>
       </c>
       <c r="H99" t="str">
-        <f>IF(M99 - M98 = 0, "", M98 - M99)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J99">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K99">
@@ -4023,12 +4027,12 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M99">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.3">
@@ -4037,11 +4041,11 @@
         <v>17</v>
       </c>
       <c r="H100" t="str">
-        <f>IF(M100 - M99 = 0, "", M99 - M100)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J100">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K100">
@@ -4049,12 +4053,12 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M100">
-        <f t="shared" ref="M100:M112" si="6">IF(K100 = 0, M99, K100)</f>
-        <v>0</v>
+        <f t="shared" ref="M100:M112" ca="1" si="8">IF(K100 = 0, M99, K100)</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.3">
@@ -4063,11 +4067,11 @@
         <v>17</v>
       </c>
       <c r="H101" t="str">
-        <f>IF(M101 - M100 = 0, "", M100 - M101)</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J101">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K101">
@@ -4075,12 +4079,12 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M101">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.3">
@@ -4089,11 +4093,11 @@
         <v>17</v>
       </c>
       <c r="H102" t="str">
-        <f>IF(M102 - M101 = 0, "", M101 - M102)</f>
+        <f t="shared" ref="H102:H119" ca="1" si="9">IF(M102 - M101 = 0, "", M101 - M102)</f>
         <v/>
       </c>
       <c r="J102">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K102">
@@ -4101,12 +4105,12 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M102">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.3">
@@ -4115,11 +4119,11 @@
         <v>17</v>
       </c>
       <c r="H103" t="str">
-        <f>IF(M103 - M102 = 0, "", M102 - M103)</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J103">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K103">
@@ -4127,12 +4131,12 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M103">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.3">
@@ -4141,11 +4145,11 @@
         <v>17</v>
       </c>
       <c r="H104" t="str">
-        <f>IF(M104 - M103 = 0, "", M103 - M104)</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J104">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K104">
@@ -4153,12 +4157,12 @@
         <v>0</v>
       </c>
       <c r="L104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M104">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
@@ -4167,11 +4171,11 @@
         <v>17</v>
       </c>
       <c r="H105" t="str">
-        <f>IF(M105 - M104 = 0, "", M104 - M105)</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J105">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K105">
@@ -4179,12 +4183,12 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M105">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.3">
@@ -4193,11 +4197,11 @@
         <v>17</v>
       </c>
       <c r="H106" t="str">
-        <f>IF(M106 - M105 = 0, "", M105 - M106)</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J106">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K106">
@@ -4205,12 +4209,12 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M106">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.3">
@@ -4219,11 +4223,11 @@
         <v>17</v>
       </c>
       <c r="H107" t="str">
-        <f>IF(M107 - M106 = 0, "", M106 - M107)</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J107">
-        <f t="shared" ref="J107:J119" si="7">IF(I107 = "-", -D106,G107)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K107">
@@ -4231,12 +4235,12 @@
         <v>0</v>
       </c>
       <c r="L107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M107">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.3">
@@ -4245,11 +4249,11 @@
         <v>17</v>
       </c>
       <c r="H108" t="str">
-        <f>IF(M108 - M107 = 0, "", M107 - M108)</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J108">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K108">
@@ -4257,12 +4261,12 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M108">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.3">
@@ -4271,11 +4275,11 @@
         <v>17</v>
       </c>
       <c r="H109" t="str">
-        <f>IF(M109 - M108 = 0, "", M108 - M109)</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J109">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K109">
@@ -4283,12 +4287,12 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M109">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.3">
@@ -4297,11 +4301,11 @@
         <v>17</v>
       </c>
       <c r="H110" t="str">
-        <f>IF(M110 - M109 = 0, "", M109 - M110)</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J110">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K110">
@@ -4309,12 +4313,12 @@
         <v>0</v>
       </c>
       <c r="L110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M110">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
@@ -4323,11 +4327,11 @@
         <v>17</v>
       </c>
       <c r="H111" t="str">
-        <f>IF(M111 - M110 = 0, "", M110 - M111)</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J111">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K111">
@@ -4335,12 +4339,12 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M111">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.3">
@@ -4349,11 +4353,11 @@
         <v>17</v>
       </c>
       <c r="H112" t="str">
-        <f>IF(M112 - M111 = 0, "", M111 - M112)</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J112">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J112:J119" si="10">IF(I112 = "-", -D111,G112)</f>
         <v>0</v>
       </c>
       <c r="K112">
@@ -4361,12 +4365,12 @@
         <v>0</v>
       </c>
       <c r="L112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M112">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.3">
@@ -4374,12 +4378,12 @@
         <f xml:space="preserve"> IF(I113="-", "", 1 +SUM(L$2:L113))</f>
         <v>17</v>
       </c>
-      <c r="H113" t="str">
-        <f>IF(M113 - M112 = 0, "", M112 - M113)</f>
-        <v/>
+      <c r="H113">
+        <f t="shared" ca="1" si="9"/>
+        <v>-10</v>
       </c>
       <c r="J113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K113">
@@ -4387,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4397,11 +4401,11 @@
         <v>17</v>
       </c>
       <c r="H114" t="str">
-        <f>IF(M114 - M113 = 0, "", M113 - M114)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K114">
@@ -4409,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4419,11 +4423,11 @@
         <v>17</v>
       </c>
       <c r="H115" t="str">
-        <f>IF(M115 - M114 = 0, "", M114 - M115)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K115">
@@ -4431,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4441,11 +4445,11 @@
         <v>17</v>
       </c>
       <c r="H116" t="str">
-        <f>IF(M116 - M115 = 0, "", M115 - M116)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K116">
@@ -4453,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4463,11 +4467,11 @@
         <v>17</v>
       </c>
       <c r="H117" t="str">
-        <f>IF(M117 - M116 = 0, "", M116 - M117)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K117">
@@ -4475,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4485,11 +4489,11 @@
         <v>17</v>
       </c>
       <c r="H118" t="str">
-        <f>IF(M118 - M117 = 0, "", M117 - M118)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K118">
@@ -4497,17 +4501,17 @@
         <v>0</v>
       </c>
       <c r="L118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H119" t="str">
-        <f>IF(M119 - M118 = 0, "", M118 - M119)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K119">
@@ -4515,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="L119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4525,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>

--- a/research/akadaner/2020.12.13 boiling_plan_sample.xlsx
+++ b/research/akadaner/2020.12.13 boiling_plan_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\research\akadaner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7DCB03-7878-47E0-9134-345C372CEB50}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C8C23-C059-42F9-AF49-0A7C17C1D33B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,7 +497,7 @@
     <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.2" x14ac:dyDescent="0.3">
@@ -543,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f xml:space="preserve"> IF(I2="-", "", 1 +SUM(L$2:L2))</f>
+        <f ca="1">IF(I2="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L2)))))</f>
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="2">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="H2" t="str">
         <f ca="1">IF(M2 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M2)</f>
@@ -568,10 +568,10 @@
       <c r="I2" s="2"/>
       <c r="J2">
         <f ca="1">IF(I2 = "-", -INDIRECT("D" &amp; ROW() - 1),G2)</f>
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="K2">
-        <f>IF(I2 = "-", SUM(J$2:J2), 0)</f>
+        <f ca="1">IF(I2 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J2)))), 0)</f>
         <v>0</v>
       </c>
       <c r="L2">
@@ -584,187 +584,187 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" ref="B3:B66" ca="1" si="0">IF(I3="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L3)))))</f>
+        <v/>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="str">
+        <f ca="1">IF(M3 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M3)</f>
+        <v/>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <f ca="1">IF(I3 = "-", -INDIRECT("D" &amp; ROW() - 1),G3)</f>
+        <v>-850</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" ca="1" si="1">IF(I3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J3)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>IF(I3="-",1,0)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <f xml:space="preserve"> IF(I3="-", "", 1 +SUM(L$2:L3))</f>
+      <c r="M3">
+        <f ca="1">IF(K3 = 0, INDIRECT("M" &amp; ROW() - 1), K3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>850</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="2">
         <v>850</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" ca="1" si="0">IF(M3 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M3)</f>
-        <v/>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3">
-        <f t="shared" ref="J3:J66" ca="1" si="1">IF(I3 = "-", -INDIRECT("D" &amp; ROW() - 1),G3)</f>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H66" ca="1" si="2">IF(M4 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M4)</f>
+        <v/>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4">
+        <f t="shared" ref="J4:J66" ca="1" si="3">IF(I4 = "-", -INDIRECT("D" &amp; ROW() - 1),G4)</f>
         <v>850</v>
       </c>
-      <c r="K3">
-        <f>IF(I3 = "-", SUM(J$2:J3), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L66" si="2">IF(I3="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M59" ca="1" si="3">IF(K3 = 0, INDIRECT("M" &amp; ROW() - 1), K3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f xml:space="preserve"> IF(I4="-", "", 1 +SUM(L$2:L4))</f>
-        <v/>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-840</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L66" si="4">IF(I4="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M59" ca="1" si="5">IF(K4 = 0, INDIRECT("M" &amp; ROW() - 1), K4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="3"/>
         <v>-850</v>
       </c>
-      <c r="K4">
-        <f ca="1">IF(I4 = "-", SUM(J$2:J4), 0)</f>
-        <v>840</v>
-      </c>
-      <c r="L4">
-        <f>IF(I4="-",1,0)</f>
+      <c r="K5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>IF(I5="-",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="3"/>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="M5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
-        <f xml:space="preserve"> IF(I5="-", "", 1 +SUM(L$2:L5))</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>850</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="2">
         <v>567</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6">
+        <f t="shared" ca="1" si="3"/>
         <v>567</v>
       </c>
-      <c r="K5">
-        <f>IF(I5 = "-", SUM(J$2:J5), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="3"/>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f xml:space="preserve"> IF(I6="-", "", 1 +SUM(L$2:L6))</f>
-        <v/>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <f ca="1">IF(M6 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M6)</f>
-        <v>283</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <f ca="1">IF(I6 = "-", -INDIRECT("D" &amp; ROW() - 1),G6)</f>
-        <v>-850</v>
-      </c>
       <c r="K6">
-        <f ca="1">IF(I6 = "-", SUM(J$2:J6), 0)</f>
-        <v>557</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L6">
-        <f>IF(I6="-",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M6">
-        <f ca="1">IF(K6 = 0, INDIRECT("M" &amp; ROW() - 1), K6)</f>
-        <v>557</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <f xml:space="preserve"> IF(I7="-", "", 1 +SUM(L$2:L7))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -791,25 +791,25 @@
         <v>283</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I7" s="2"/>
       <c r="J7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>283</v>
       </c>
       <c r="K7">
-        <f>IF(I7 = "-", SUM(J$2:J7), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" ca="1" si="3"/>
-        <v>557</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f xml:space="preserve"> IF(I8="-", "", 1 +SUM(L$2:L8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C8" s="2" t="s">
@@ -835,28 +835,28 @@
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="0"/>
-        <v>567</v>
+      <c r="H8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
       </c>
       <c r="I8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-850</v>
       </c>
       <c r="K8">
-        <f ca="1">IF(I8 = "-", SUM(J$2:J8), 0)</f>
-        <v>-10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M8">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <f xml:space="preserve"> IF(I9="-", "", 1 +SUM(L$2:L9))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -883,25 +883,25 @@
         <v>850</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I9" s="2"/>
       <c r="J9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>850</v>
       </c>
       <c r="K9">
-        <f>IF(I9 = "-", SUM(J$2:J9), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -909,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f xml:space="preserve"> IF(I10="-", "", 1 +SUM(L$2:L10))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C10" s="2" t="s">
@@ -928,27 +928,27 @@
         <v>10</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J10">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-850</v>
       </c>
       <c r="K10">
-        <f ca="1">IF(I10 = "-", SUM(J$2:J10), 0)</f>
-        <v>-10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M10">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <f xml:space="preserve"> IF(I11="-", "", 1 +SUM(L$2:L11))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -975,25 +975,25 @@
         <v>850</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I11" s="2"/>
       <c r="J11">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>850</v>
       </c>
       <c r="K11">
-        <f>IF(I11 = "-", SUM(J$2:J11), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1001,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f xml:space="preserve"> IF(I12="-", "", 1 +SUM(L$2:L12))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C12" s="2" t="s">
@@ -1020,27 +1020,27 @@
         <v>10</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-850</v>
       </c>
       <c r="K12">
-        <f ca="1">IF(I12 = "-", SUM(J$2:J12), 0)</f>
-        <v>-10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M12">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <f xml:space="preserve"> IF(I13="-", "", 1 +SUM(L$2:L13))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1067,25 +1067,25 @@
         <v>850</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I13" s="2"/>
       <c r="J13">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>850</v>
       </c>
       <c r="K13">
-        <f>IF(I13 = "-", SUM(J$2:J13), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1093,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f xml:space="preserve"> IF(I14="-", "", 1 +SUM(L$2:L14))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C14" s="2" t="s">
@@ -1112,27 +1112,27 @@
         <v>10</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J14">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-850</v>
       </c>
       <c r="K14">
-        <f ca="1">IF(I14 = "-", SUM(J$2:J14), 0)</f>
-        <v>-10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M14">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2">
-        <f xml:space="preserve"> IF(I15="-", "", 1 +SUM(L$2:L15))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1159,25 +1159,25 @@
         <v>297</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I15" s="2"/>
       <c r="J15">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>297</v>
       </c>
       <c r="K15">
-        <f>IF(I15 = "-", SUM(J$2:J15), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="2">
-        <f xml:space="preserve"> IF(I16="-", "", 1 +SUM(L$2:L16))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1204,25 +1204,25 @@
         <v>553</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I16" s="2"/>
       <c r="J16">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>553</v>
       </c>
       <c r="K16">
-        <f>IF(I16 = "-", SUM(J$2:J16), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M16">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1230,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f xml:space="preserve"> IF(I17="-", "", 1 +SUM(L$2:L17))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C17" s="2" t="s">
@@ -1249,27 +1249,27 @@
         <v>10</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J17">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-850</v>
       </c>
       <c r="K17">
-        <f ca="1">IF(I17 = "-", SUM(J$2:J17), 0)</f>
-        <v>-10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M17">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <f xml:space="preserve"> IF(I18="-", "", 1 +SUM(L$2:L18))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1296,25 +1296,25 @@
         <v>850</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I18" s="2"/>
       <c r="J18">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>850</v>
       </c>
       <c r="K18">
-        <f>IF(I18 = "-", SUM(J$2:J18), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1322,7 +1322,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f xml:space="preserve"> IF(I19="-", "", 1 +SUM(L$2:L19))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C19" s="2" t="s">
@@ -1341,27 +1341,27 @@
         <v>10</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-850</v>
       </c>
       <c r="K19">
-        <f ca="1">IF(I19 = "-", SUM(J$2:J19), 0)</f>
-        <v>-10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M19">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="2">
-        <f xml:space="preserve"> IF(I20="-", "", 1 +SUM(L$2:L20))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1388,25 +1388,25 @@
         <v>240</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I20" s="2"/>
       <c r="J20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>240</v>
       </c>
       <c r="K20">
-        <f>IF(I20 = "-", SUM(J$2:J20), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="2">
-        <f xml:space="preserve"> IF(I21="-", "", 1 +SUM(L$2:L21))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1433,25 +1433,25 @@
         <v>610</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I21" s="2"/>
       <c r="J21">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>610</v>
       </c>
       <c r="K21">
-        <f>IF(I21 = "-", SUM(J$2:J21), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M21">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1459,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f xml:space="preserve"> IF(I22="-", "", 1 +SUM(L$2:L22))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C22" s="2" t="s">
@@ -1478,27 +1478,27 @@
         <v>10</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J22">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-850</v>
       </c>
       <c r="K22">
-        <f ca="1">IF(I22 = "-", SUM(J$2:J22), 0)</f>
-        <v>-10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M22">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1506,7 +1506,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="2">
-        <f xml:space="preserve"> IF(I23="-", "", 1 +SUM(L$2:L23))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1525,25 +1525,25 @@
         <v>34</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I23" s="2"/>
       <c r="J23">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>34</v>
       </c>
       <c r="K23">
-        <f>IF(I23 = "-", SUM(J$2:J23), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1551,7 +1551,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="2">
-        <f xml:space="preserve"> IF(I24="-", "", 1 +SUM(L$2:L24))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1570,25 +1570,25 @@
         <v>966</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I24" s="2"/>
       <c r="J24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>966</v>
       </c>
       <c r="K24">
-        <f>IF(I24 = "-", SUM(J$2:J24), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1596,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f xml:space="preserve"> IF(I25="-", "", 1 +SUM(L$2:L25))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C25" s="2" t="s">
@@ -1615,27 +1615,27 @@
         <v>10</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J25">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-1000</v>
       </c>
       <c r="K25">
-        <f ca="1">IF(I25 = "-", SUM(J$2:J25), 0)</f>
-        <v>-10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1643,7 +1643,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="2">
-        <f xml:space="preserve"> IF(I26="-", "", 1 +SUM(L$2:L26))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1662,25 +1662,25 @@
         <v>1000</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I26" s="2"/>
       <c r="J26">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1000</v>
       </c>
       <c r="K26">
-        <f>IF(I26 = "-", SUM(J$2:J26), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1688,7 +1688,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f xml:space="preserve"> IF(I27="-", "", 1 +SUM(L$2:L27))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C27" s="2" t="s">
@@ -1707,27 +1707,27 @@
         <v>10</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J27">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-1000</v>
       </c>
       <c r="K27">
-        <f ca="1">IF(I27 = "-", SUM(J$2:J27), 0)</f>
-        <v>-10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M27">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1735,7 +1735,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="2">
-        <f xml:space="preserve"> IF(I28="-", "", 1 +SUM(L$2:L28))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1754,25 +1754,25 @@
         <v>198</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I28" s="2"/>
       <c r="J28">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>198</v>
       </c>
       <c r="K28">
-        <f>IF(I28 = "-", SUM(J$2:J28), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1780,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="2">
-        <f xml:space="preserve"> IF(I29="-", "", 1 +SUM(L$2:L29))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1799,25 +1799,25 @@
         <v>102</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I29" s="2"/>
       <c r="J29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>102</v>
       </c>
       <c r="K29">
-        <f>IF(I29 = "-", SUM(J$2:J29), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1825,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="2">
-        <f xml:space="preserve"> IF(I30="-", "", 1 +SUM(L$2:L30))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1844,25 +1844,25 @@
         <v>143</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I30" s="2"/>
       <c r="J30">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>143</v>
       </c>
       <c r="K30">
-        <f>IF(I30 = "-", SUM(J$2:J30), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="2">
-        <f xml:space="preserve"> IF(I31="-", "", 1 +SUM(L$2:L31))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1889,25 +1889,25 @@
         <v>337</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I31" s="2"/>
       <c r="J31">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>337</v>
       </c>
       <c r="K31">
-        <f>IF(I31 = "-", SUM(J$2:J31), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -1915,7 +1915,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="2">
-        <f xml:space="preserve"> IF(I32="-", "", 1 +SUM(L$2:L32))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1934,25 +1934,25 @@
         <v>61</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I32" s="2"/>
       <c r="J32">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>61</v>
       </c>
       <c r="K32">
-        <f>IF(I32 = "-", SUM(J$2:J32), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M32">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -1960,7 +1960,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="2">
-        <f xml:space="preserve"> IF(I33="-", "", 1 +SUM(L$2:L33))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1979,25 +1979,25 @@
         <v>159</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I33" s="2"/>
       <c r="J33">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>159</v>
       </c>
       <c r="K33">
-        <f>IF(I33 = "-", SUM(J$2:J33), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M33">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2005,7 +2005,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f xml:space="preserve"> IF(I34="-", "", 1 +SUM(L$2:L34))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C34" s="2" t="s">
@@ -2024,27 +2024,27 @@
         <v>10</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J34">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-1000</v>
       </c>
       <c r="K34">
-        <f ca="1">IF(I34 = "-", SUM(J$2:J34), 0)</f>
-        <v>-10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M34">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2052,7 +2052,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="2">
-        <f xml:space="preserve"> IF(I35="-", "", 1 +SUM(L$2:L35))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2071,25 +2071,25 @@
         <v>1000</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I35" s="2"/>
       <c r="J35">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1000</v>
       </c>
       <c r="K35">
-        <f>IF(I35 = "-", SUM(J$2:J35), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2097,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f xml:space="preserve"> IF(I36="-", "", 1 +SUM(L$2:L36))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C36" s="2" t="s">
@@ -2116,27 +2116,27 @@
         <v>10</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J36">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-1000</v>
       </c>
       <c r="K36">
-        <f ca="1">IF(I36 = "-", SUM(J$2:J36), 0)</f>
-        <v>-10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M36">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2144,7 +2144,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="2">
-        <f xml:space="preserve"> IF(I37="-", "", 1 +SUM(L$2:L37))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2163,25 +2163,25 @@
         <v>1000</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I37" s="2"/>
       <c r="J37">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1000</v>
       </c>
       <c r="K37">
-        <f>IF(I37 = "-", SUM(J$2:J37), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M37">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2189,7 +2189,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="2" t="str">
-        <f xml:space="preserve"> IF(I38="-", "", 1 +SUM(L$2:L38))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C38" s="2" t="s">
@@ -2208,27 +2208,27 @@
         <v>10</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J38">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-1000</v>
       </c>
       <c r="K38">
-        <f ca="1">IF(I38 = "-", SUM(J$2:J38), 0)</f>
-        <v>-10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M38">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="2">
-        <f xml:space="preserve"> IF(I39="-", "", 1 +SUM(L$2:L39))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2255,25 +2255,25 @@
         <v>850</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I39" s="2"/>
       <c r="J39">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>850</v>
       </c>
       <c r="K39">
-        <f>IF(I39 = "-", SUM(J$2:J39), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M39">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -2281,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="2" t="str">
-        <f xml:space="preserve"> IF(I40="-", "", 1 +SUM(L$2:L40))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C40" s="2" t="s">
@@ -2300,27 +2300,27 @@
         <v>10</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J40">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-850</v>
       </c>
       <c r="K40">
-        <f ca="1">IF(I40 = "-", SUM(J$2:J40), 0)</f>
-        <v>-10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M40">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -2328,7 +2328,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="2">
-        <f xml:space="preserve"> IF(I41="-", "", 1 +SUM(L$2:L41))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2347,25 +2347,25 @@
         <v>850</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I41" s="2"/>
       <c r="J41">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>850</v>
       </c>
       <c r="K41">
-        <f>IF(I41 = "-", SUM(J$2:J41), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M41">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2373,7 +2373,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="2" t="str">
-        <f xml:space="preserve"> IF(I42="-", "", 1 +SUM(L$2:L42))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C42" s="2" t="s">
@@ -2392,53 +2392,53 @@
         <v>10</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="I42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J42">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-850</v>
       </c>
       <c r="K42">
-        <f ca="1">IF(I42 = "-", SUM(J$2:J42), 0)</f>
-        <v>-10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M42">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
-        <f xml:space="preserve"> IF(I43="-", "", 1 +SUM(L$2:L43))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J43">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K43">
-        <f>IF(I43 = "-", SUM(J$2:J43), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M43">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -2446,28 +2446,28 @@
         <v>1</v>
       </c>
       <c r="B44" s="2">
-        <f xml:space="preserve"> IF(I44="-", "", 1 +SUM(L$2:L44))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J44">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f>IF(I44 = "-", SUM(J$2:J44), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M44">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -2475,28 +2475,28 @@
         <v>1</v>
       </c>
       <c r="B45" s="2">
-        <f xml:space="preserve"> IF(I45="-", "", 1 +SUM(L$2:L45))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J45">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f>IF(I45 = "-", SUM(J$2:J45), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -2504,28 +2504,28 @@
         <v>1</v>
       </c>
       <c r="B46" s="2">
-        <f xml:space="preserve"> IF(I46="-", "", 1 +SUM(L$2:L46))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f>IF(I46 = "-", SUM(J$2:J46), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M46">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -2533,28 +2533,28 @@
         <v>1</v>
       </c>
       <c r="B47" s="2">
-        <f xml:space="preserve"> IF(I47="-", "", 1 +SUM(L$2:L47))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J47">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f>IF(I47 = "-", SUM(J$2:J47), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -2562,28 +2562,28 @@
         <v>1</v>
       </c>
       <c r="B48" s="2">
-        <f xml:space="preserve"> IF(I48="-", "", 1 +SUM(L$2:L48))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J48">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f>IF(I48 = "-", SUM(J$2:J48), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -2591,28 +2591,28 @@
         <v>1</v>
       </c>
       <c r="B49" s="2">
-        <f xml:space="preserve"> IF(I49="-", "", 1 +SUM(L$2:L49))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J49">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f>IF(I49 = "-", SUM(J$2:J49), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M49">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -2620,28 +2620,28 @@
         <v>1</v>
       </c>
       <c r="B50" s="2">
-        <f xml:space="preserve"> IF(I50="-", "", 1 +SUM(L$2:L50))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J50">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f>IF(I50 = "-", SUM(J$2:J50), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M50">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -2649,28 +2649,28 @@
         <v>1</v>
       </c>
       <c r="B51" s="2">
-        <f xml:space="preserve"> IF(I51="-", "", 1 +SUM(L$2:L51))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J51">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K51">
-        <f>IF(I51 = "-", SUM(J$2:J51), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M51">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -2678,28 +2678,28 @@
         <v>1</v>
       </c>
       <c r="B52" s="2">
-        <f xml:space="preserve"> IF(I52="-", "", 1 +SUM(L$2:L52))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J52">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f>IF(I52 = "-", SUM(J$2:J52), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M52">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -2707,28 +2707,28 @@
         <v>1</v>
       </c>
       <c r="B53" s="2">
-        <f xml:space="preserve"> IF(I53="-", "", 1 +SUM(L$2:L53))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J53">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K53">
-        <f>IF(I53 = "-", SUM(J$2:J53), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M53">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -2736,28 +2736,28 @@
         <v>1</v>
       </c>
       <c r="B54" s="2">
-        <f xml:space="preserve"> IF(I54="-", "", 1 +SUM(L$2:L54))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J54">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K54">
-        <f>IF(I54 = "-", SUM(J$2:J54), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M54">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -2765,28 +2765,28 @@
         <v>1</v>
       </c>
       <c r="B55" s="2">
-        <f xml:space="preserve"> IF(I55="-", "", 1 +SUM(L$2:L55))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J55">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K55">
-        <f>IF(I55 = "-", SUM(J$2:J55), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -2794,28 +2794,28 @@
         <v>1</v>
       </c>
       <c r="B56" s="2">
-        <f xml:space="preserve"> IF(I56="-", "", 1 +SUM(L$2:L56))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J56">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K56">
-        <f>IF(I56 = "-", SUM(J$2:J56), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M56">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -2823,28 +2823,28 @@
         <v>1</v>
       </c>
       <c r="B57" s="2">
-        <f xml:space="preserve"> IF(I57="-", "", 1 +SUM(L$2:L57))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J57">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K57">
-        <f>IF(I57 = "-", SUM(J$2:J57), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M57">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -2852,28 +2852,28 @@
         <v>1</v>
       </c>
       <c r="B58" s="2">
-        <f xml:space="preserve"> IF(I58="-", "", 1 +SUM(L$2:L58))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J58">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K58">
-        <f>IF(I58 = "-", SUM(J$2:J58), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -2881,28 +2881,28 @@
         <v>3</v>
       </c>
       <c r="B59" s="2">
-        <f xml:space="preserve"> IF(I59="-", "", 1 +SUM(L$2:L59))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J59">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <f>IF(I59 = "-", SUM(J$2:J59), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -2910,28 +2910,28 @@
         <v>2</v>
       </c>
       <c r="B60" s="2">
-        <f xml:space="preserve"> IF(I60="-", "", 1 +SUM(L$2:L60))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J60">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K60">
-        <f>IF(I60 = "-", SUM(J$2:J60), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" ref="M60:M99" ca="1" si="4">IF(K60 = 0, M59, K60)</f>
-        <v>-10</v>
+        <f t="shared" ref="M60:M99" ca="1" si="6">IF(K60 = 0, M59, K60)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -2939,28 +2939,28 @@
         <v>2</v>
       </c>
       <c r="B61" s="2">
-        <f xml:space="preserve"> IF(I61="-", "", 1 +SUM(L$2:L61))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J61">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K61">
-        <f>IF(I61 = "-", SUM(J$2:J61), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -2968,28 +2968,28 @@
         <v>2</v>
       </c>
       <c r="B62" s="2">
-        <f xml:space="preserve"> IF(I62="-", "", 1 +SUM(L$2:L62))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K62">
-        <f>IF(I62 = "-", SUM(J$2:J62), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -2997,28 +2997,28 @@
         <v>2</v>
       </c>
       <c r="B63" s="2">
-        <f xml:space="preserve"> IF(I63="-", "", 1 +SUM(L$2:L63))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J63">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K63">
-        <f>IF(I63 = "-", SUM(J$2:J63), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M63">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -3026,28 +3026,28 @@
         <v>2</v>
       </c>
       <c r="B64" s="2">
-        <f xml:space="preserve"> IF(I64="-", "", 1 +SUM(L$2:L64))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J64">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K64">
-        <f>IF(I64 = "-", SUM(J$2:J64), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M64">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -3055,28 +3055,28 @@
         <v>2</v>
       </c>
       <c r="B65" s="2">
-        <f xml:space="preserve"> IF(I65="-", "", 1 +SUM(L$2:L65))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K65">
-        <f>IF(I65 = "-", SUM(J$2:J65), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M65">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -3084,28 +3084,28 @@
         <v>2</v>
       </c>
       <c r="B66" s="2">
-        <f xml:space="preserve"> IF(I66="-", "", 1 +SUM(L$2:L66))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J66">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K66">
-        <f>IF(I66 = "-", SUM(J$2:J66), 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M66">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -3113,28 +3113,28 @@
         <v>5</v>
       </c>
       <c r="B67" s="2">
-        <f xml:space="preserve"> IF(I67="-", "", 1 +SUM(L$2:L67))</f>
+        <f t="shared" ref="B67:B107" ca="1" si="7">IF(I67="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L67)))))</f>
         <v>17</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H101" ca="1" si="5">IF(M67 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M67)</f>
+        <f t="shared" ref="H67:H101" ca="1" si="8">IF(M67 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M67)</f>
         <v/>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J111" ca="1" si="6">IF(I67 = "-", -INDIRECT("D" &amp; ROW() - 1),G67)</f>
+        <f t="shared" ref="J67:J111" ca="1" si="9">IF(I67 = "-", -INDIRECT("D" &amp; ROW() - 1),G67)</f>
         <v>0</v>
       </c>
       <c r="K67">
-        <f>IF(I67 = "-", SUM(J$2:J67), 0)</f>
+        <f t="shared" ref="K67:K118" ca="1" si="10">IF(I67 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J67)))), 0)</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L120" si="7">IF(I67="-",1,0)</f>
+        <f t="shared" ref="L67:L120" si="11">IF(I67="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -3142,28 +3142,28 @@
         <v>5</v>
       </c>
       <c r="B68" s="2">
-        <f xml:space="preserve"> IF(I68="-", "", 1 +SUM(L$2:L68))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J68">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M68">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K68">
-        <f>IF(I68 = "-", SUM(J$2:J68), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -3171,28 +3171,28 @@
         <v>7</v>
       </c>
       <c r="B69" s="2">
-        <f xml:space="preserve"> IF(I69="-", "", 1 +SUM(L$2:L69))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J69">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M69">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K69">
-        <f>IF(I69 = "-", SUM(J$2:J69), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -3200,28 +3200,28 @@
         <v>7</v>
       </c>
       <c r="B70" s="2">
-        <f xml:space="preserve"> IF(I70="-", "", 1 +SUM(L$2:L70))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J70">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M70">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K70">
-        <f>IF(I70 = "-", SUM(J$2:J70), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -3229,28 +3229,28 @@
         <v>6</v>
       </c>
       <c r="B71" s="2">
-        <f xml:space="preserve"> IF(I71="-", "", 1 +SUM(L$2:L71))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J71">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M71">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K71">
-        <f>IF(I71 = "-", SUM(J$2:J71), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -3258,28 +3258,28 @@
         <v>6</v>
       </c>
       <c r="B72" s="2">
-        <f xml:space="preserve"> IF(I72="-", "", 1 +SUM(L$2:L72))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J72">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M72">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K72">
-        <f>IF(I72 = "-", SUM(J$2:J72), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -3287,28 +3287,28 @@
         <v>6</v>
       </c>
       <c r="B73" s="2">
-        <f xml:space="preserve"> IF(I73="-", "", 1 +SUM(L$2:L73))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J73">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M73">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K73">
-        <f>IF(I73 = "-", SUM(J$2:J73), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -3316,28 +3316,28 @@
         <v>6</v>
       </c>
       <c r="B74" s="2">
-        <f xml:space="preserve"> IF(I74="-", "", 1 +SUM(L$2:L74))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J74">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M74">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K74">
-        <f>IF(I74 = "-", SUM(J$2:J74), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -3345,28 +3345,28 @@
         <v>6</v>
       </c>
       <c r="B75" s="2">
-        <f xml:space="preserve"> IF(I75="-", "", 1 +SUM(L$2:L75))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J75">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M75">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K75">
-        <f>IF(I75 = "-", SUM(J$2:J75), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -3374,28 +3374,28 @@
         <v>6</v>
       </c>
       <c r="B76" s="2">
-        <f xml:space="preserve"> IF(I76="-", "", 1 +SUM(L$2:L76))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J76">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M76">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K76">
-        <f>IF(I76 = "-", SUM(J$2:J76), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -3403,28 +3403,28 @@
         <v>6</v>
       </c>
       <c r="B77" s="2">
-        <f xml:space="preserve"> IF(I77="-", "", 1 +SUM(L$2:L77))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J77">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M77">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K77">
-        <f>IF(I77 = "-", SUM(J$2:J77), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -3432,28 +3432,28 @@
         <v>6</v>
       </c>
       <c r="B78" s="2">
-        <f xml:space="preserve"> IF(I78="-", "", 1 +SUM(L$2:L78))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J78">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M78">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K78">
-        <f>IF(I78 = "-", SUM(J$2:J78), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -3461,28 +3461,28 @@
         <v>6</v>
       </c>
       <c r="B79" s="2">
-        <f xml:space="preserve"> IF(I79="-", "", 1 +SUM(L$2:L79))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J79">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M79">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K79">
-        <f>IF(I79 = "-", SUM(J$2:J79), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -3490,28 +3490,28 @@
         <v>6</v>
       </c>
       <c r="B80" s="2">
-        <f xml:space="preserve"> IF(I80="-", "", 1 +SUM(L$2:L80))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J80">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M80">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K80">
-        <f>IF(I80 = "-", SUM(J$2:J80), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -3519,28 +3519,28 @@
         <v>6</v>
       </c>
       <c r="B81" s="2">
-        <f xml:space="preserve"> IF(I81="-", "", 1 +SUM(L$2:L81))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J81">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M81">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K81">
-        <f>IF(I81 = "-", SUM(J$2:J81), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -3548,28 +3548,28 @@
         <v>6</v>
       </c>
       <c r="B82" s="2">
-        <f xml:space="preserve"> IF(I82="-", "", 1 +SUM(L$2:L82))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J82">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M82">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K82">
-        <f>IF(I82 = "-", SUM(J$2:J82), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -3577,28 +3577,28 @@
         <v>6</v>
       </c>
       <c r="B83" s="2">
-        <f xml:space="preserve"> IF(I83="-", "", 1 +SUM(L$2:L83))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J83">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M83">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K83">
-        <f>IF(I83 = "-", SUM(J$2:J83), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -3606,28 +3606,28 @@
         <v>9</v>
       </c>
       <c r="B84" s="2">
-        <f xml:space="preserve"> IF(I84="-", "", 1 +SUM(L$2:L84))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J84">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M84">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K84">
-        <f>IF(I84 = "-", SUM(J$2:J84), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -3635,28 +3635,28 @@
         <v>9</v>
       </c>
       <c r="B85" s="2">
-        <f xml:space="preserve"> IF(I85="-", "", 1 +SUM(L$2:L85))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J85">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M85">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K85">
-        <f>IF(I85 = "-", SUM(J$2:J85), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -3664,28 +3664,28 @@
         <v>9</v>
       </c>
       <c r="B86" s="2">
-        <f xml:space="preserve"> IF(I86="-", "", 1 +SUM(L$2:L86))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J86">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M86">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K86">
-        <f>IF(I86 = "-", SUM(J$2:J86), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -3693,28 +3693,28 @@
         <v>9</v>
       </c>
       <c r="B87" s="2">
-        <f xml:space="preserve"> IF(I87="-", "", 1 +SUM(L$2:L87))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J87">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M87">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K87">
-        <f>IF(I87 = "-", SUM(J$2:J87), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -3722,28 +3722,28 @@
         <v>9</v>
       </c>
       <c r="B88" s="2">
-        <f xml:space="preserve"> IF(I88="-", "", 1 +SUM(L$2:L88))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J88">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M88">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K88">
-        <f>IF(I88 = "-", SUM(J$2:J88), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -3751,767 +3751,767 @@
         <v>9</v>
       </c>
       <c r="B89" s="2">
-        <f xml:space="preserve"> IF(I89="-", "", 1 +SUM(L$2:L89))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J89">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M89">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K89">
-        <f>IF(I89 = "-", SUM(J$2:J89), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
-        <f xml:space="preserve"> IF(I90="-", "", 1 +SUM(L$2:L90))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J90">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M90">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K90">
-        <f>IF(I90 = "-", SUM(J$2:J90), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
-        <f xml:space="preserve"> IF(I91="-", "", 1 +SUM(L$2:L91))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J91">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M91">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K91">
-        <f>IF(I91 = "-", SUM(J$2:J91), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B92" s="2">
-        <f xml:space="preserve"> IF(I92="-", "", 1 +SUM(L$2:L92))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J92">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M92">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K92">
-        <f>IF(I92 = "-", SUM(J$2:J92), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B93" s="2">
-        <f xml:space="preserve"> IF(I93="-", "", 1 +SUM(L$2:L93))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J93">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M93">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K93">
-        <f>IF(I93 = "-", SUM(J$2:J93), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B94" s="2">
-        <f xml:space="preserve"> IF(I94="-", "", 1 +SUM(L$2:L94))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J94">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M94">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K94">
-        <f>IF(I94 = "-", SUM(J$2:J94), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B95" s="2">
-        <f xml:space="preserve"> IF(I95="-", "", 1 +SUM(L$2:L95))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J95">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M95">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K95">
-        <f>IF(I95 = "-", SUM(J$2:J95), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B96" s="2">
-        <f xml:space="preserve"> IF(I96="-", "", 1 +SUM(L$2:L96))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J96">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M96">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K96">
-        <f>IF(I96 = "-", SUM(J$2:J96), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B97" s="2">
-        <f xml:space="preserve"> IF(I97="-", "", 1 +SUM(L$2:L97))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J97">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M97">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K97">
-        <f>IF(I97 = "-", SUM(J$2:J97), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="2">
-        <f xml:space="preserve"> IF(I98="-", "", 1 +SUM(L$2:L98))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J98">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M98">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K98">
-        <f>IF(I98 = "-", SUM(J$2:J98), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="2">
-        <f xml:space="preserve"> IF(I99="-", "", 1 +SUM(L$2:L99))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J99">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M99">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
-      </c>
-      <c r="K99">
-        <f>IF(I99 = "-", SUM(J$2:J99), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="2">
-        <f xml:space="preserve"> IF(I100="-", "", 1 +SUM(L$2:L100))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J100">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="K100">
-        <f>IF(I100 = "-", SUM(J$2:J100), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M100">
-        <f t="shared" ref="M100:M112" ca="1" si="8">IF(K100 = 0, M99, K100)</f>
-        <v>-10</v>
+        <f t="shared" ref="M100:M112" ca="1" si="12">IF(K100 = 0, M99, K100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="2">
-        <f xml:space="preserve"> IF(I101="-", "", 1 +SUM(L$2:L101))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J101">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="K101">
-        <f>IF(I101 = "-", SUM(J$2:J101), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M101">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="2">
-        <f xml:space="preserve"> IF(I102="-", "", 1 +SUM(L$2:L102))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" ref="H102:H119" ca="1" si="9">IF(M102 - M101 = 0, "", M101 - M102)</f>
+        <f t="shared" ref="H102:H119" ca="1" si="13">IF(M102 - M101 = 0, "", M101 - M102)</f>
         <v/>
       </c>
       <c r="J102">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="K102">
-        <f>IF(I102 = "-", SUM(J$2:J102), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M102">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="2">
-        <f xml:space="preserve"> IF(I103="-", "", 1 +SUM(L$2:L103))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H103" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J103">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J103">
-        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K103">
-        <f>IF(I103 = "-", SUM(J$2:J103), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M103">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="2">
-        <f xml:space="preserve"> IF(I104="-", "", 1 +SUM(L$2:L104))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H104" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J104">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J104">
-        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K104">
-        <f>IF(I104 = "-", SUM(J$2:J104), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M104">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B105" s="2">
-        <f xml:space="preserve"> IF(I105="-", "", 1 +SUM(L$2:L105))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H105" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J105">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J105">
-        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K105">
-        <f>IF(I105 = "-", SUM(J$2:J105), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M105">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="2">
-        <f xml:space="preserve"> IF(I106="-", "", 1 +SUM(L$2:L106))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H106" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J106">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J106">
-        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K106">
-        <f>IF(I106 = "-", SUM(J$2:J106), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M106">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B107" s="2">
-        <f xml:space="preserve"> IF(I107="-", "", 1 +SUM(L$2:L107))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
       <c r="H107" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J107">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J107">
-        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K107">
-        <f>IF(I107 = "-", SUM(J$2:J107), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M107">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="2">
-        <f xml:space="preserve"> IF(I108="-", "", 1 +SUM(L$2:L108))</f>
+        <f t="shared" ref="B67:B118" ca="1" si="14">IF(I108="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L108)) &amp; ":" &amp; ADDRESS(ROW()-1,COLUMN(L108)))))</f>
         <v>17</v>
       </c>
       <c r="H108" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J108">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J108">
-        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K108">
-        <f>IF(I108 = "-", SUM(J$2:J108), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M108">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="2">
-        <f xml:space="preserve"> IF(I109="-", "", 1 +SUM(L$2:L109))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>17</v>
       </c>
       <c r="H109" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J109">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J109">
-        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K109">
-        <f>IF(I109 = "-", SUM(J$2:J109), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M109">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="2">
-        <f xml:space="preserve"> IF(I110="-", "", 1 +SUM(L$2:L110))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>17</v>
       </c>
       <c r="H110" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J110">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J110">
-        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K110">
-        <f>IF(I110 = "-", SUM(J$2:J110), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M110">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" s="2">
-        <f xml:space="preserve"> IF(I111="-", "", 1 +SUM(L$2:L111))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>17</v>
       </c>
       <c r="H111" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J111">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J111">
-        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K111">
-        <f>IF(I111 = "-", SUM(J$2:J111), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M111">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="2">
-        <f xml:space="preserve"> IF(I112="-", "", 1 +SUM(L$2:L112))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>17</v>
       </c>
       <c r="H112" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="J112">
-        <f t="shared" ref="J112:J119" si="10">IF(I112 = "-", -D111,G112)</f>
+        <f t="shared" ref="J112:J119" si="15">IF(I112 = "-", -D111,G112)</f>
         <v>0</v>
       </c>
       <c r="K112">
-        <f>IF(I112 = "-", SUM(J$2:J112), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M112">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
-        <f xml:space="preserve"> IF(I113="-", "", 1 +SUM(L$2:L113))</f>
-        <v>17</v>
-      </c>
-      <c r="H113">
-        <f t="shared" ca="1" si="9"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
       </c>
       <c r="J113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K113">
-        <f>IF(I113 = "-", SUM(J$2:J113), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B114" s="2">
-        <f xml:space="preserve"> IF(I114="-", "", 1 +SUM(L$2:L114))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>17</v>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K114">
-        <f>IF(I114 = "-", SUM(J$2:J114), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B115" s="2">
-        <f xml:space="preserve"> IF(I115="-", "", 1 +SUM(L$2:L115))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>17</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K115">
-        <f>IF(I115 = "-", SUM(J$2:J115), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B116" s="2">
-        <f xml:space="preserve"> IF(I116="-", "", 1 +SUM(L$2:L116))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>17</v>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K116">
-        <f>IF(I116 = "-", SUM(J$2:J116), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B117" s="2">
-        <f xml:space="preserve"> IF(I117="-", "", 1 +SUM(L$2:L117))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>17</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K117">
-        <f>IF(I117 = "-", SUM(J$2:J117), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B118" s="2">
-        <f xml:space="preserve"> IF(I118="-", "", 1 +SUM(L$2:L118))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>17</v>
       </c>
       <c r="H118" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K118">
-        <f>IF(I118 = "-", SUM(J$2:J118), 0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H119" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K119">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="L119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
